--- a/Artifacts/Global Macro_etfs.xlsx
+++ b/Artifacts/Global Macro_etfs.xlsx
@@ -502,13 +502,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>974073600</v>
+        <v>990662400</v>
       </c>
       <c r="F2" t="n">
         <v>0.0117</v>
       </c>
       <c r="G2" t="n">
-        <v>680366833664</v>
+        <v>674249375744</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1151020800</v>
+        <v>1109894400</v>
       </c>
       <c r="F4" t="n">
         <v>0.027</v>
       </c>
       <c r="G4" t="n">
-        <v>76663562240</v>
+        <v>76082135040</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>68822441984</v>
+        <v>68473188352</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">

--- a/Artifacts/Global Macro_etfs.xlsx
+++ b/Artifacts/Global Macro_etfs.xlsx
@@ -502,13 +502,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>990662400</v>
+        <v>974073600</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0117</v>
+        <v>0.0114</v>
       </c>
       <c r="G2" t="n">
-        <v>674249375744</v>
+        <v>684037242880</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -542,7 +542,7 @@
         <v>1184889600</v>
       </c>
       <c r="F3" t="n">
-        <v>0.026300002</v>
+        <v>0.027999999</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -577,10 +577,10 @@
         <v>1109894400</v>
       </c>
       <c r="F4" t="n">
-        <v>0.027</v>
+        <v>0.028399998</v>
       </c>
       <c r="G4" t="n">
-        <v>76082135040</v>
+        <v>77783875584</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1258588800</v>
+        <v>1280448000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0446</v>
+        <v>0.0436</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>68473188352</v>
+        <v>74682155008</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -756,7 +756,7 @@
         <v>1415318400</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0434</v>
+        <v>0.0429</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>

--- a/Artifacts/Global Macro_etfs.xlsx
+++ b/Artifacts/Global Macro_etfs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,6 +766,78 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VNQ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vanguard Real Estate ETF</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Vanguard</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1095897600</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.038599998</v>
+      </c>
+      <c r="G10" t="n">
+        <v>33164513280</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VNQI</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vanguard Global ex-U.S. Real Es</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Global Real Estate</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Vanguard</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1288569600</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
